--- a/biology/Zoologie/Benthonellania/Benthonellania.xlsx
+++ b/biology/Zoologie/Benthonellania/Benthonellania.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Benthonellania est un genre de mollusques gastéropodes de la famille des Rissoidae et dont l'espèce-type est Benthonellania gofasi[1].
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Benthonellania est un genre de mollusques gastéropodes de la famille des Rissoidae et dont l'espèce-type est Benthonellania gofasi.
 </t>
         </is>
       </c>
@@ -511,9 +523,11 @@
           <t>Liste d'espèces</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>Selon World Register of Marine Species                               (31 octobre 2017)[1] :
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t>Selon World Register of Marine Species                               (31 octobre 2017) :
 Benthonellania acuticostata (Dall, 1889)
 Benthonellania agastachys Bouchet &amp; Warén, 1993
 Benthonellania alvanioides Oliver &amp; Rolán, 2017
@@ -556,7 +570,9 @@
           <t>Publication originale</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t>Pierre Lozouet, « Benthonellania nouveau genre de Rissoidae (Gastropoda, Prosobranchia) du bathyal atlantique », Bulletin du Muséum national d'histoire naturelle. Section A, Zoologie, biologie et écologie animales, Paris, Muséum national d'histoire naturelle, vol. 12, no 2,‎ 1990, p. 313-328 (ISSN 0181-0626, OCLC 436447503, BNF 34354410, lire en ligne)</t>
         </is>
